--- a/MovieSimpleApi.xlsx
+++ b/MovieSimpleApi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC98D74-55DC-9044-856A-DFBFE86CAADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8348AB0-FFC2-D04A-9D75-EE2FA8A2279A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22300" yWindow="1760" windowWidth="17580" windowHeight="17560" activeTab="1" xr2:uid="{66412230-C7D0-E34E-9807-70A42BB8002E}"/>
+    <workbookView xWindow="-22300" yWindow="1760" windowWidth="17580" windowHeight="17560" xr2:uid="{66412230-C7D0-E34E-9807-70A42BB8002E}"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Activity</t>
   </si>
@@ -69,49 +69,13 @@
     <t>ENDPOINT</t>
   </si>
   <si>
-    <t>https://app-eu.earthsquad.global</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>{"username":"$(USER)","password":"$(PASSWORD)"}</t>
-  </si>
-  <si>
-    <t>/api/rest-auth/login/</t>
-  </si>
-  <si>
-    <t>{"authorizaton": "Token $(ANSWER_CONTENT.key)", "Content-Type": "application/json", "accept": "application/json"}</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
-    <t>/api/scanapp/EN-US/statistics/?user=all&amp;duration=year</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
     <t>http://www.omdbapi.com/</t>
-  </si>
-  <si>
-    <t>was POST</t>
-  </si>
-  <si>
-    <t>was GET</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>was HEADER</t>
-  </si>
-  <si>
-    <t>was ENDPOINT</t>
-  </si>
-  <si>
-    <t>was APIURL</t>
   </si>
   <si>
     <t>SAVE</t>
@@ -189,9 +153,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -508,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC898E-D5AA-CD41-8233-01E4EA8DA4E8}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,109 +514,50 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{3A06DC91-ACF5-DA48-810B-07A9AD3368CA}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{04BBCD10-6963-544B-8922-2ACE137FBFD1}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3A06DC91-ACF5-DA48-810B-07A9AD3368CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -663,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA80A0C-85ED-564D-9D6E-3AF80AAB7A80}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -671,32 +575,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
